--- a/Plotting/0.7.5/Missing_robotics.xlsx
+++ b/Plotting/0.7.5/Missing_robotics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Kerbal Space Program\GameData\SkyhawkScienceSystem\Plotting\0.7.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Kerbal Space Program\GameData\SkyhawkScienceSystem\Plotting\0.7.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F23832-4C10-4438-AA1D-144B90256A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72BBF5C-A5CC-4EBA-9CA0-6548AEA8EA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1164" windowWidth="15192" windowHeight="11196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="15228" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Missing_robotics" sheetId="1" r:id="rId1"/>
@@ -33,54 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
-    <t>PART.name</t>
-  </si>
-  <si>
-    <t>DC.Arm.arm</t>
-  </si>
-  <si>
-    <t>DC.Arm.arm2</t>
-  </si>
-  <si>
-    <t>DC.Arm.arm3</t>
-  </si>
-  <si>
-    <t>DC.Arm.rotor</t>
-  </si>
-  <si>
-    <t>DC.Arm.turn</t>
-  </si>
-  <si>
-    <t>DC.Arm.turn.02</t>
-  </si>
-  <si>
-    <t>DC.doorhinge.0075m</t>
-  </si>
-  <si>
-    <t>DC.doorhinge.075m</t>
-  </si>
-  <si>
-    <t>DC.doorhinge.2m</t>
-  </si>
-  <si>
-    <t>DC.GANTRY.01</t>
-  </si>
-  <si>
-    <t>DC.GANTRY.01.2X</t>
-  </si>
-  <si>
-    <t>DC.GANTRY.02s</t>
-  </si>
-  <si>
-    <t>DC.GANTRY.02.2Xs</t>
-  </si>
-  <si>
-    <t>DC.GANTRY.03.2Xs</t>
-  </si>
-  <si>
-    <t>DC.Pivot.01</t>
-  </si>
-  <si>
     <t>SSS Category</t>
   </si>
   <si>
@@ -94,6 +46,54 @@
   </si>
   <si>
     <t>robotics</t>
+  </si>
+  <si>
+    <t>PART_name</t>
+  </si>
+  <si>
+    <t>DC_Arm_arm</t>
+  </si>
+  <si>
+    <t>DC_Arm_rotor</t>
+  </si>
+  <si>
+    <t>DC_doorhinge_0075m</t>
+  </si>
+  <si>
+    <t>DC_GANTRY_01</t>
+  </si>
+  <si>
+    <t>DC_Arm_arm2</t>
+  </si>
+  <si>
+    <t>DC_Arm_turn</t>
+  </si>
+  <si>
+    <t>DC_GANTRY_01_2X</t>
+  </si>
+  <si>
+    <t>DC_Arm_arm3</t>
+  </si>
+  <si>
+    <t>DC_Arm_turn_02</t>
+  </si>
+  <si>
+    <t>DC_GANTRY_02s</t>
+  </si>
+  <si>
+    <t>DC_Pivot_01</t>
+  </si>
+  <si>
+    <t>DC_doorhinge_075m</t>
+  </si>
+  <si>
+    <t>DC_GANTRY_02_2Xs</t>
+  </si>
+  <si>
+    <t>DC_doorhinge_2m</t>
+  </si>
+  <si>
+    <t>DC_GANTRY_03_2Xs</t>
   </si>
 </sst>
 </file>
@@ -937,302 +937,392 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E2" t="str">
         <f>"@PART["&amp;A2&amp;"]:AFTER["&amp;D2&amp;"] //
 {
 	@TechRequired = "&amp;B2&amp;C2&amp;"
 }"</f>
-        <v>@PART[DC.Arm.arm]:AFTER[Missing_robotics] //
-{
-	@TechRequired = robotics
+        <v>@PART[DC_Arm_arm]:AFTER[Missing_robotics] //
+{
+	@TechRequired = robotics6
 }</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E16" si="0">"@PART["&amp;A3&amp;"]:AFTER["&amp;D3&amp;"] //
+        <f>"@PART["&amp;A3&amp;"]:AFTER["&amp;D3&amp;"] //
 {
 	@TechRequired = "&amp;B3&amp;C3&amp;"
 }"</f>
-        <v>@PART[DC.Arm.arm2]:AFTER[Missing_robotics] //
-{
-	@TechRequired = robotics
+        <v>@PART[DC_Arm_rotor]:AFTER[Missing_robotics] //
+{
+	@TechRequired = robotics6
 }</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[DC.Arm.arm3]:AFTER[Missing_robotics] //
-{
-	@TechRequired = robotics
+        <f>"@PART["&amp;A4&amp;"]:AFTER["&amp;D4&amp;"] //
+{
+	@TechRequired = "&amp;B4&amp;C4&amp;"
+}"</f>
+        <v>@PART[DC_doorhinge_0075m]:AFTER[Missing_robotics] //
+{
+	@TechRequired = robotics6
 }</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[DC.Arm.rotor]:AFTER[Missing_robotics] //
-{
-	@TechRequired = robotics
+        <f>"@PART["&amp;A5&amp;"]:AFTER["&amp;D5&amp;"] //
+{
+	@TechRequired = "&amp;B5&amp;C5&amp;"
+}"</f>
+        <v>@PART[DC_GANTRY_01]:AFTER[Missing_robotics] //
+{
+	@TechRequired = robotics6
 }</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[DC.Arm.turn]:AFTER[Missing_robotics] //
-{
-	@TechRequired = robotics
+        <f>"@PART["&amp;A6&amp;"]:AFTER["&amp;D6&amp;"] //
+{
+	@TechRequired = "&amp;B6&amp;C6&amp;"
+}"</f>
+        <v>@PART[DC_Arm_arm2]:AFTER[Missing_robotics] //
+{
+	@TechRequired = robotics7
 }</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[DC.Arm.turn.02]:AFTER[Missing_robotics] //
-{
-	@TechRequired = robotics
+        <f>"@PART["&amp;A7&amp;"]:AFTER["&amp;D7&amp;"] //
+{
+	@TechRequired = "&amp;B7&amp;C7&amp;"
+}"</f>
+        <v>@PART[DC_Arm_turn]:AFTER[Missing_robotics] //
+{
+	@TechRequired = robotics7
 }</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[DC.doorhinge.0075m]:AFTER[Missing_robotics] //
-{
-	@TechRequired = robotics
+        <f>"@PART["&amp;A8&amp;"]:AFTER["&amp;D8&amp;"] //
+{
+	@TechRequired = "&amp;B8&amp;C8&amp;"
+}"</f>
+        <v>@PART[DC_GANTRY_01_2X]:AFTER[Missing_robotics] //
+{
+	@TechRequired = robotics7
 }</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[DC.doorhinge.075m]:AFTER[Missing_robotics] //
-{
-	@TechRequired = robotics
+        <f>"@PART["&amp;A9&amp;"]:AFTER["&amp;D9&amp;"] //
+{
+	@TechRequired = "&amp;B9&amp;C9&amp;"
+}"</f>
+        <v>@PART[DC_Arm_arm3]:AFTER[Missing_robotics] //
+{
+	@TechRequired = robotics8
 }</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[DC.doorhinge.2m]:AFTER[Missing_robotics] //
-{
-	@TechRequired = robotics
+        <f>"@PART["&amp;A10&amp;"]:AFTER["&amp;D10&amp;"] //
+{
+	@TechRequired = "&amp;B10&amp;C10&amp;"
+}"</f>
+        <v>@PART[DC_Arm_turn_02]:AFTER[Missing_robotics] //
+{
+	@TechRequired = robotics8
 }</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[DC.GANTRY.01]:AFTER[Missing_robotics] //
-{
-	@TechRequired = robotics
+        <f>"@PART["&amp;A11&amp;"]:AFTER["&amp;D11&amp;"] //
+{
+	@TechRequired = "&amp;B11&amp;C11&amp;"
+}"</f>
+        <v>@PART[DC_GANTRY_02s]:AFTER[Missing_robotics] //
+{
+	@TechRequired = robotics8
 }</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[DC.GANTRY.01.2X]:AFTER[Missing_robotics] //
-{
-	@TechRequired = robotics
+        <f>"@PART["&amp;A12&amp;"]:AFTER["&amp;D12&amp;"] //
+{
+	@TechRequired = "&amp;B12&amp;C12&amp;"
+}"</f>
+        <v>@PART[DC_Pivot_01]:AFTER[Missing_robotics] //
+{
+	@TechRequired = robotics8
 }</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[DC.GANTRY.02s]:AFTER[Missing_robotics] //
-{
-	@TechRequired = robotics
+        <f>"@PART["&amp;A13&amp;"]:AFTER["&amp;D13&amp;"] //
+{
+	@TechRequired = "&amp;B13&amp;C13&amp;"
+}"</f>
+        <v>@PART[DC_doorhinge_075m]:AFTER[Missing_robotics] //
+{
+	@TechRequired = robotics9
 }</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[DC.GANTRY.02.2Xs]:AFTER[Missing_robotics] //
-{
-	@TechRequired = robotics
+        <f>"@PART["&amp;A14&amp;"]:AFTER["&amp;D14&amp;"] //
+{
+	@TechRequired = "&amp;B14&amp;C14&amp;"
+}"</f>
+        <v>@PART[DC_GANTRY_02_2Xs]:AFTER[Missing_robotics] //
+{
+	@TechRequired = robotics9
 }</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[DC.GANTRY.03.2Xs]:AFTER[Missing_robotics] //
-{
-	@TechRequired = robotics
+        <f>"@PART["&amp;A15&amp;"]:AFTER["&amp;D15&amp;"] //
+{
+	@TechRequired = "&amp;B15&amp;C15&amp;"
+}"</f>
+        <v>@PART[DC_doorhinge_2m]:AFTER[Missing_robotics] //
+{
+	@TechRequired = robotics10
 }</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[DC.Pivot.01]:AFTER[Missing_robotics] //
-{
-	@TechRequired = robotics
+        <f>"@PART["&amp;A16&amp;"]:AFTER["&amp;D16&amp;"] //
+{
+	@TechRequired = "&amp;B16&amp;C16&amp;"
+}"</f>
+        <v>@PART[DC_GANTRY_03_2Xs]:AFTER[Missing_robotics] //
+{
+	@TechRequired = robotics10
 }</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
+    <sortCondition ref="C2:C16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>